--- a/tests/testing_files/conversion_error.xlsx
+++ b/tests/testing_files/conversion_error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\testing_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D287414-206E-49A1-8EA0-4DABCB2E3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838314C0-E08A-495A-95C6-C0AF617BE28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2190" windowWidth="23565" windowHeight="12015" activeTab="1" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
+    <workbookView xWindow="4155" yWindow="2340" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
   </bookViews>
   <sheets>
     <sheet name="#convert" sheetId="6" r:id="rId1"/>
@@ -245,9 +245,6 @@
     <t>IC-FTMS_measurement</t>
   </si>
   <si>
-    <t>#unique=false</t>
-  </si>
-  <si>
     <t>Compound1</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>Compound+Mol_Formula</t>
+  </si>
+  <si>
+    <t>#match=all</t>
   </si>
 </sst>
 </file>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8067F3B6-BC85-4627-B925-1366E7FE6A62}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -651,26 +651,26 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
         <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FFFD15-87D9-4AFC-82C0-CA4CE918806E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -793,7 +793,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
